--- a/Unity/Assets/Config/Excel/PetTuJianConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetTuJianConfig.xlsx
@@ -1298,7 +1298,7 @@
   <dimension ref="C1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="4">
         <v>20002</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="4">
         <v>20003</v>

--- a/Unity/Assets/Config/Excel/PetTuJianConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetTuJianConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="PetTuJianProto" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -157,6 +157,9 @@
     <t>精灵类型</t>
   </si>
   <si>
+    <t>召唤消耗</t>
+  </si>
+  <si>
     <t>图标显示</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>JingLingType</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
   <si>
     <t>Icon</t>
@@ -1295,13 +1301,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O9"/>
+  <dimension ref="C1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1310,18 +1316,19 @@
     <col min="5" max="5" width="14.5" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="19.125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="62.25" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="16.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="14.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="62.25" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1"/>
     <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:15">
+    <row r="3" ht="20.1" customHeight="1" spans="3:16">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1361,95 +1368,104 @@
       <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:15">
+    <row r="4" ht="20.1" customHeight="1" spans="3:16">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:15">
+    <row r="5" ht="20.1" customHeight="1" spans="3:16">
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
       <c r="C6" s="4">
         <v>20001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1463,30 +1479,33 @@
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>20001</v>
+        <v>10</v>
       </c>
       <c r="K6" s="4">
         <v>20001</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>31</v>
+      <c r="L6" s="4">
+        <v>20001</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="O6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:15">
+    <row r="7" ht="20.1" customHeight="1" spans="3:16">
       <c r="C7" s="4">
         <v>20002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1500,30 +1519,33 @@
         <v>2</v>
       </c>
       <c r="J7" s="4">
-        <v>20002</v>
+        <v>10</v>
       </c>
       <c r="K7" s="4">
         <v>20002</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>31</v>
+      <c r="L7" s="4">
+        <v>20002</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:15">
+    <row r="8" ht="20.1" customHeight="1" spans="3:16">
       <c r="C8" s="4">
         <v>20003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1537,27 +1559,26 @@
         <v>3</v>
       </c>
       <c r="J8" s="4">
-        <v>20003</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4">
         <v>20003</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>31</v>
+      <c r="L8" s="4">
+        <v>20003</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="10:11">
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/PetTuJianConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetTuJianConfig.xlsx
@@ -451,12 +451,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1304,7 +1304,7 @@
   <dimension ref="C1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" s="4">
         <v>20001</v>
@@ -1519,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K7" s="4">
         <v>20002</v>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K8" s="4">
         <v>20003</v>

--- a/Unity/Assets/Config/Excel/PetTuJianConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetTuJianConfig.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F6268-6C8A-4A53-8C84-41077BE5FC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTuJianProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -47,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -71,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,13 +78,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -96,6 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -104,13 +103,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -119,6 +119,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -229,56 +230,101 @@
     <t>double</t>
   </si>
   <si>
-    <t>无极熊猫</t>
-  </si>
-  <si>
-    <t>100403;50</t>
-  </si>
-  <si>
-    <t>大师界</t>
-  </si>
-  <si>
-    <t>攻击提升50点</t>
-  </si>
-  <si>
-    <t>每天会随机给你一些金币！</t>
-  </si>
-  <si>
-    <t>黑焰之灵</t>
+    <t>邪恶鳄鱼</t>
+  </si>
+  <si>
+    <t>火焰松鼠</t>
+  </si>
+  <si>
+    <t>白羽蝴蝶</t>
+  </si>
+  <si>
+    <t>冰雪人</t>
+  </si>
+  <si>
+    <t>火焰之树</t>
+  </si>
+  <si>
+    <t>天空守卫</t>
+  </si>
+  <si>
+    <t>熔岩之魔</t>
+  </si>
+  <si>
+    <t>天狼蜘蛛</t>
+  </si>
+  <si>
+    <t>200303;0.01</t>
+  </si>
+  <si>
+    <t>闪避概率+1%</t>
+  </si>
+  <si>
+    <t>200103;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升30点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪概率出现</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>202103;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200403;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200903;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>100203;500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生命上限+500点</t>
-  </si>
-  <si>
-    <t>帮助玩家主动拾取地上的金币</t>
-  </si>
-  <si>
-    <t>神愈使者</t>
-  </si>
-  <si>
-    <t>202103;0.01</t>
-  </si>
-  <si>
-    <t>重击概率+1%</t>
-  </si>
-  <si>
-    <t>帮助玩家主动拾取地上的金币和道具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +336,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -297,172 +344,39 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,198 +391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -689,253 +417,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,65 +436,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1295,19 +737,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:P8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1320,15 +762,15 @@
     <col min="10" max="10" width="14.125" style="2" customWidth="1"/>
     <col min="11" max="12" width="14.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18" style="2" customWidth="1"/>
     <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="62.25" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:16">
+    <row r="1" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:16">
+    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:16">
+    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
+    <row r="6" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4">
         <v>20001</v>
       </c>
@@ -1476,36 +918,34 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="4">
-        <v>20001</v>
+        <v>400001</v>
       </c>
       <c r="L6" s="4">
-        <v>20001</v>
+        <v>400001</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P6" s="5"/>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:16">
+    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>20002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1516,36 +956,34 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K7" s="4">
-        <v>20002</v>
+        <v>400002</v>
       </c>
       <c r="L7" s="4">
-        <v>20002</v>
+        <v>400002</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P7" s="5"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:16">
+    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>20003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1559,31 +997,199 @@
         <v>3</v>
       </c>
       <c r="J8" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4">
-        <v>20003</v>
+        <v>400003</v>
       </c>
       <c r="L8" s="4">
-        <v>20003</v>
+        <v>400003</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>20004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
+        <v>400004</v>
+      </c>
+      <c r="L9" s="4">
+        <v>400004</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>20005</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4">
+        <v>400005</v>
+      </c>
+      <c r="L10" s="4">
+        <v>400005</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>20006</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4">
+        <v>400006</v>
+      </c>
+      <c r="L11" s="4">
+        <v>400006</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
+        <v>20007</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
+        <v>400007</v>
+      </c>
+      <c r="L12" s="4">
+        <v>400007</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>20008</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4">
+        <v>400008</v>
+      </c>
+      <c r="L13" s="4">
+        <v>400008</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>